--- a/sources/case/payment.xlsx
+++ b/sources/case/payment.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="73">
   <si>
     <t>CaseID</t>
   </si>
@@ -271,6 +271,14 @@
   </si>
   <si>
     <t>payment_8</t>
+  </si>
+  <si>
+    <t>!!Int200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -315,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +332,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -966,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1065,7 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>199.98</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1098,7 +1109,7 @@
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>199.99</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1142,8 +1153,8 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1">
-        <v>200</v>
+      <c r="H4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>60</v>
@@ -1186,7 +1197,7 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>199.98</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1230,7 +1241,7 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>199.99</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1274,8 +1285,8 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1">
-        <v>200</v>
+      <c r="H7" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>60</v>
@@ -1318,7 +1329,7 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>200.1</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1362,7 +1373,7 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>200.11</v>
       </c>
       <c r="I9" s="1" t="s">

--- a/sources/case/payment.xlsx
+++ b/sources/case/payment.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -124,9 +124,6 @@
     <t>bank_account</t>
   </si>
   <si>
-    <t>2017-11-07T22:43:13+08:00</t>
-  </si>
-  <si>
     <t>支票</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   <si>
     <t>!!Int200</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-07T22:43:13+08:00</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -717,14 +717,14 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="1" bestFit="1" customWidth="1"/>
@@ -760,210 +760,210 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1">
         <v>199.98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>199.99</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1">
         <v>200</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1">
         <v>199.98</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1">
         <v>199.99</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1">
         <v>200</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1">
         <v>200.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
         <v>200.11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +978,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>29</v>
@@ -1045,22 +1045,22 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1069,19 +1069,19 @@
         <v>199.98</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>15</v>
@@ -1089,22 +1089,22 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1113,19 +1113,19 @@
         <v>199.99</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>15</v>
@@ -1133,43 +1133,43 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>15</v>
@@ -1177,22 +1177,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1201,19 +1201,19 @@
         <v>199.98</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>15</v>
@@ -1221,22 +1221,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1245,19 +1245,19 @@
         <v>199.99</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>15</v>
@@ -1265,43 +1265,43 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>15</v>
@@ -1309,22 +1309,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1333,19 +1333,19 @@
         <v>200.1</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>15</v>
@@ -1353,22 +1353,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1377,19 +1377,19 @@
         <v>200.11</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>15</v>

--- a/sources/case/payment.xlsx
+++ b/sources/case/payment.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="71">
   <si>
     <t>CaseID</t>
   </si>
@@ -268,14 +268,6 @@
   </si>
   <si>
     <t>payment_8</t>
-  </si>
-  <si>
-    <t>!!Int200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Int200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{Date.LastMonth}-07T22:43:13+08:00</t>
@@ -717,7 +709,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
@@ -792,7 +784,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -818,7 +810,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>37</v>
@@ -844,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
@@ -870,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
@@ -896,7 +888,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>40</v>
@@ -922,7 +914,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
@@ -948,7 +940,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>42</v>
@@ -978,7 +970,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1043,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -1095,7 +1087,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -1139,7 +1131,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -1153,8 +1145,8 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>70</v>
+      <c r="H4" s="3">
+        <v>200</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>59</v>
@@ -1183,7 +1175,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1227,7 +1219,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1271,7 +1263,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -1285,8 +1277,8 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>71</v>
+      <c r="H7" s="3">
+        <v>200</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>59</v>
@@ -1315,7 +1307,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -1359,7 +1351,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>

--- a/sources/case/payment.xlsx
+++ b/sources/case/payment.xlsx
@@ -277,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -291,6 +291,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,13 +326,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,62 +652,64 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -709,23 +718,24 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -751,7 +761,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -970,29 +980,30 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="78.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1035,7 +1046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1079,7 +1090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
